--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>negative</t>
@@ -61,87 +64,96 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>daughter</t>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>family</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>ever</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -151,36 +163,33 @@
     <t>works</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
@@ -190,10 +199,10 @@
     <t>one</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.3636363636363636</v>
+        <v>0.4031007751937984</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +682,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3333333333333333</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,71 +700,95 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>0.8984375</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>115</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C5">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>156</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8668730650154799</v>
+      </c>
+      <c r="L5">
+        <v>560</v>
+      </c>
+      <c r="M5">
+        <v>560</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>86</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>0.90625</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5">
-        <v>0.8622291021671826</v>
-      </c>
-      <c r="L5">
-        <v>557</v>
-      </c>
-      <c r="M5">
-        <v>557</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -767,21 +800,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <v>0.7402597402597403</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -793,21 +826,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>0.7012987012987013</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -819,21 +852,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.6901408450704225</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L9">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -845,21 +878,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.6779661016949152</v>
+        <v>0.7152542372881356</v>
       </c>
       <c r="L10">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M10">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -871,21 +904,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -897,21 +930,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.6500802568218299</v>
+        <v>0.6613162118780096</v>
       </c>
       <c r="L12">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="M12">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -923,15 +956,15 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6052631578947368</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13">
         <v>46</v>
@@ -949,21 +982,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.578125</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -975,21 +1008,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.5657142857142857</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1001,21 +1034,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.5576923076923077</v>
+        <v>0.609375</v>
       </c>
       <c r="L16">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="M16">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1027,21 +1060,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.5571428571428572</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1053,21 +1086,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.5542168674698795</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1079,21 +1112,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1110,16 +1143,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20">
-        <v>0.52</v>
+        <v>0.5508982035928144</v>
       </c>
       <c r="L20">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="M20">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1131,21 +1164,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5147058823529411</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1157,21 +1190,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5138888888888888</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1183,21 +1216,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.5128205128205128</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1209,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.5029940119760479</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L24">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1235,21 +1268,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.463855421686747</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L25">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1261,21 +1294,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.4360902255639098</v>
+        <v>0.4691358024691358</v>
       </c>
       <c r="L26">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1287,21 +1320,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27">
-        <v>0.3759398496240601</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1313,21 +1346,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.3597122302158273</v>
+        <v>0.46</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1339,21 +1372,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.3553921568627451</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L29">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="M29">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1365,21 +1398,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>263</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.3540856031128405</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L30">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="M30">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1391,21 +1424,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.3492822966507177</v>
+        <v>0.3946078431372549</v>
       </c>
       <c r="L31">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="M31">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1417,21 +1450,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.3136986301369863</v>
+        <v>0.3618677042801556</v>
       </c>
       <c r="L32">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="M32">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1443,21 +1476,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>501</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.2612612612612613</v>
+        <v>0.3609022556390977</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1469,21 +1502,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.2582781456953642</v>
+        <v>0.3219178082191781</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1495,21 +1528,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>112</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.2540365984930033</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="L35">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1521,21 +1554,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>693</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.2410596026490066</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L36">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1547,21 +1580,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>573</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.225705329153605</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L37">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1573,21 +1606,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>247</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.2135549872122762</v>
+        <v>0.2604951560818084</v>
       </c>
       <c r="L38">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="M38">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1599,21 +1632,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>615</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.1946308724832215</v>
+        <v>0.2264900662251656</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1625,99 +1658,99 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>120</v>
+        <v>584</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.1766109785202864</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="L40">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="M40">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>345</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.1666666666666667</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="L41">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>380</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.1594594594594595</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L42">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M42">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N42">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.1586715867158671</v>
+        <v>0.1644736842105263</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="M43">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1729,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>228</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.1454545454545454</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1755,21 +1788,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.1407407407407407</v>
+        <v>0.1365313653136531</v>
       </c>
       <c r="L45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1781,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.1237113402061856</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1807,137 +1840,189 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.1170731707317073</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="L47">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M47">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.08464849354375897</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L48">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>638</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.07857811038353602</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L49">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="M49">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>985</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.05719557195571956</v>
+        <v>0.08920863309352518</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>511</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.04861111111111111</v>
+        <v>0.08707865168539326</v>
       </c>
       <c r="L51">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="M51">
+        <v>97</v>
+      </c>
+      <c r="N51">
+        <v>0.96</v>
+      </c>
+      <c r="O51">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N51">
-        <v>0.92</v>
-      </c>
-      <c r="O51">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1096</v>
+      <c r="K52">
+        <v>0.06678230702515178</v>
+      </c>
+      <c r="L52">
+        <v>77</v>
+      </c>
+      <c r="M52">
+        <v>81</v>
+      </c>
+      <c r="N52">
+        <v>0.95</v>
+      </c>
+      <c r="O52">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53">
+        <v>0.06642066420664207</v>
+      </c>
+      <c r="L53">
+        <v>36</v>
+      </c>
+      <c r="M53">
+        <v>36</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
